--- a/document/财务/费用报告及支出记录/项目资金支出记录_FishTouchers.xlsx
+++ b/document/财务/费用报告及支出记录/项目资金支出记录_FishTouchers.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="项目组支出记录" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,15 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彭青峰申请后端组员工资（一周）</t>
-  </si>
-  <si>
-    <t>彭青峰测试组员工资（一周）</t>
-  </si>
-  <si>
-    <t>彭青峰管理人员工资（一周）</t>
-  </si>
-  <si>
     <t>潘恋军杭州出差住宿费1晚</t>
   </si>
   <si>
@@ -243,11 +234,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彭青峰申请前端组员工资（一周）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>庞治宇购买操作系统（win10家庭版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉熙打印300份文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉熙刻盘存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何祎君报前端人员培训费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何祎君报后端人员培训费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何祎君报测试人员培训费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家咨询费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘恋军深圳出差住宿费1晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘恋军深圳出差交通费-高铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.06</t>
+  </si>
+  <si>
+    <t>彭青峰申请前端组员工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭青峰申请后端组员工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭青峰测试组员工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭青峰管理人员工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料动力费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉熙报电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉熙报水费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +345,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +382,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -309,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -439,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -600,17 +686,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -683,15 +758,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -700,52 +775,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,22 +827,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,12 +878,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,10 +902,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,36 +914,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1117,7 +1193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1137,622 +1213,850 @@
     <col min="2" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="43.875" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="28">
         <v>590</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="28">
         <v>1800</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="28">
         <v>21000</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28">
+        <v>90</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="29">
+        <v>450</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="30">
+        <v>480</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28">
+        <v>9000</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="28">
+        <v>100</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="28">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="47">
-        <v>90</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="28">
+        <v>320</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="28">
+        <v>450</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="28">
+        <v>60</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="31">
+        <v>120</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="28">
+        <v>300</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="28">
+        <v>920</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="28">
+        <v>550</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="29">
+        <v>7500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="28">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>20</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="28">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="28">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="28">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="28">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="32">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="32">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="32">
+        <v>500</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="32">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>29</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="50">
-        <v>450</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="51">
-        <v>480</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="47">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="47">
-        <v>9000</v>
-      </c>
-      <c r="E13" s="48" t="s">
+      <c r="B34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="32">
+        <v>950</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="47">
-        <v>100</v>
-      </c>
-      <c r="E14" s="48" t="s">
+      <c r="B35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="32">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>31</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>10</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="47">
-        <v>8000</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>11</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="47">
-        <v>320</v>
-      </c>
-      <c r="E16" s="48" t="s">
+      <c r="B36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="32">
+        <v>5200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>32</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="32">
+        <v>5200</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>33</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="32">
+        <v>3250</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>34</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="47">
-        <v>450</v>
-      </c>
-      <c r="E17" s="52" t="s">
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="32">
+        <v>220</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>35</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>13</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="47">
-        <v>60</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="53">
-        <v>120</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>15</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="47">
-        <v>300</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>16</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="47">
-        <v>920</v>
-      </c>
-      <c r="E21" s="48" t="s">
+      <c r="B40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="32">
+        <v>190</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <v>17</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="47">
-        <v>550</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <v>18</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5200</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
-        <v>20</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3500</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <v>21</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <v>22</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
-        <v>23</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
-        <v>24</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
-        <v>25</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
-        <v>26</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29">
-        <f>SUM(D6:D32)</f>
-        <v>60930</v>
-      </c>
-      <c r="E33" s="29" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="51">
+        <f>SUM(D6:D40)</f>
+        <v>98590</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F41" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="26"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="A41:C42"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
